--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="128">
   <si>
     <t>Profile</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Average Blood Pressure</t>
   </si>
   <si>
-    <t>null#vital-signs</t>
+    <t>Observation Category Codes#vital-signs</t>
   </si>
   <si>
     <t/>
@@ -192,6 +192,198 @@
   </si>
   <si>
     <t>LOINC#8472-3</t>
+  </si>
+  <si>
+    <t>advanced-dive-profile</t>
+  </si>
+  <si>
+    <t>Advanced Dive Profile</t>
+  </si>
+  <si>
+    <t>diving-medicine-cs#dive-profile</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>diving-medicine-cs#maximum-depth</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>diving-medicine-cs#bottom-time</t>
+  </si>
+  <si>
+    <t>diving-medicine-cs#surface-interval</t>
+  </si>
+  <si>
+    <t>diving-medicine-cs#ascent-rate</t>
+  </si>
+  <si>
+    <t>diving-medicine-cs#water-temperature</t>
+  </si>
+  <si>
+    <t>diving-medicine-cs#visibility</t>
+  </si>
+  <si>
+    <t>diving-medicine-cs#nitrogen-loading</t>
+  </si>
+  <si>
+    <t>diving-medicine-cs#breathing-gas</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>diving-medicine-cs#decompression-obligation</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>diving-medicine-cs#emergency-procedures</t>
+  </si>
+  <si>
+    <t>underwater-communication-cs#communication-log</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>BarotraumaAssessment</t>
+  </si>
+  <si>
+    <t>Barotrauma Assessment</t>
+  </si>
+  <si>
+    <t>SNOMED CT#49532004</t>
+  </si>
+  <si>
+    <t>SNOMED CT#123672002</t>
+  </si>
+  <si>
+    <t>SNOMED CT#LA6163-4</t>
+  </si>
+  <si>
+    <t>SNOMED CT#LA6164-2</t>
+  </si>
+  <si>
+    <t>communication-session-assessment</t>
+  </si>
+  <si>
+    <t>Communication Session Assessment</t>
+  </si>
+  <si>
+    <t>underwater-communication-cs#comm-assessment</t>
+  </si>
+  <si>
+    <t>underwater-communication-cs#signal-strength</t>
+  </si>
+  <si>
+    <t>underwater-communication-cs#audio-clarity</t>
+  </si>
+  <si>
+    <t>underwater-communication-cs#comm-reliability</t>
+  </si>
+  <si>
+    <t>underwater-communication-cs#emergency-response-time</t>
+  </si>
+  <si>
+    <t>underwater-communication-cs#security-assessment</t>
+  </si>
+  <si>
+    <t>cumulative-radiation-dose</t>
+  </si>
+  <si>
+    <t>Cumulative Radiation Dose (Fixed)</t>
+  </si>
+  <si>
+    <t>LOINC#73569-6</t>
+  </si>
+  <si>
+    <t>LOINC#73536-5</t>
+  </si>
+  <si>
+    <t>LOINC#77638-4</t>
+  </si>
+  <si>
+    <t>aerospace-code-system#let</t>
+  </si>
+  <si>
+    <t>aerospace-code-system#quality-factor</t>
+  </si>
+  <si>
+    <t>aerospace-code-system#shielding-effectiveness</t>
+  </si>
+  <si>
+    <t>aerospace-code-system#exposure-duration</t>
+  </si>
+  <si>
+    <t>aerospace-code-system#career-dose</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>aerospace-code-system#mission-dose</t>
+  </si>
+  <si>
+    <t>aerospace-code-system#annual-dose</t>
+  </si>
+  <si>
+    <t>aerospace-code-system#monthly-dose</t>
+  </si>
+  <si>
+    <t>aerospace-code-system#weekly-dose</t>
+  </si>
+  <si>
+    <t>aerospace-code-system#daily-dose</t>
+  </si>
+  <si>
+    <t>aerospace-code-system#risk-assessment</t>
+  </si>
+  <si>
+    <t>aerospace-code-system#compliance-status</t>
+  </si>
+  <si>
+    <t>DiveProfile</t>
+  </si>
+  <si>
+    <t>Dive Profile</t>
+  </si>
+  <si>
+    <t>LOINC#LA6156-8</t>
+  </si>
+  <si>
+    <t>LOINC#33747-0</t>
+  </si>
+  <si>
+    <t>LOINC#LA6157-6</t>
+  </si>
+  <si>
+    <t>LOINC#LA6158-4</t>
+  </si>
+  <si>
+    <t>LOINC#LA6159-2</t>
+  </si>
+  <si>
+    <t>LOINC#33746-2</t>
+  </si>
+  <si>
+    <t>LOINC#LA6160-0</t>
+  </si>
+  <si>
+    <t>LOINC#LA6161-8</t>
+  </si>
+  <si>
+    <t>space-radiation-exposure</t>
+  </si>
+  <si>
+    <t>Space Radiation Exposure (Fixed)</t>
+  </si>
+  <si>
+    <t>https://mitre.org/fhir/space-health/ValueSet/space-radiation-dose-codes-vs-complete (extensible)</t>
   </si>
   <si>
     <t>vital-signs-panel</t>
@@ -337,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1086,7 +1278,7 @@
         <v>61</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>14</v>
@@ -1098,18 +1290,1873 @@
         <v>14</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="G68" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K22" t="s" s="2">
+      <c r="H68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="185">
   <si>
     <t>Profile</t>
   </si>
@@ -104,7 +104,7 @@
     <t>null#39156-5</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1 (extensible)</t>
   </si>
   <si>
     <t>body-temperature</t>
@@ -158,7 +158,13 @@
     <t>Oxygen Saturation in Arterial Blood by Pulse Oximetry</t>
   </si>
   <si>
-    <t>null#2708-6, null#59408-5</t>
+    <t>null#59408-5, null#2708-6</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-vital-signs (extensible)</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
   </si>
   <si>
     <t>LOINC#3151-8</t>
@@ -194,6 +200,57 @@
     <t>LOINC#8472-3</t>
   </si>
   <si>
+    <t>behavioral-health-state</t>
+  </si>
+  <si>
+    <t>Behavioral Health State</t>
+  </si>
+  <si>
+    <t>LOINC#55467-8</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/aerospace/ValueSet/behavioral-health-metrics-vs (preferred)</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept</t>
+  </si>
+  <si>
+    <t>Behavioral Biomarker Code System#cortisol-ugdl</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Behavioral Biomarker Code System#hrv-ms</t>
+  </si>
+  <si>
+    <t>Behavioral Biomarker Code System#sleep-efficiency-pct</t>
+  </si>
+  <si>
+    <t>cumulative-stress-burden</t>
+  </si>
+  <si>
+    <t>Cumulative Stress Burden</t>
+  </si>
+  <si>
+    <t>null#cumulative-stress</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1 (example)</t>
+  </si>
+  <si>
+    <t>Aerospace Behavioral State Code System#mood-level</t>
+  </si>
+  <si>
+    <t>Aerospace Behavioral State Code System#cognitive-readiness</t>
+  </si>
+  <si>
+    <t>Aerospace Behavioral State Code System#social-connectedness</t>
+  </si>
+  <si>
     <t>advanced-dive-profile</t>
   </si>
   <si>
@@ -203,15 +260,9 @@
     <t>diving-medicine-cs#dive-profile</t>
   </si>
   <si>
-    <t>dateTime</t>
-  </si>
-  <si>
     <t>diving-medicine-cs#maximum-depth</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>diving-medicine-cs#bottom-time</t>
   </si>
   <si>
@@ -251,6 +302,15 @@
     <t>string</t>
   </si>
   <si>
+    <t>artemis-radiation-exposure</t>
+  </si>
+  <si>
+    <t>Artemis Radiation Exposure</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
     <t>BarotraumaAssessment</t>
   </si>
   <si>
@@ -269,6 +329,27 @@
     <t>SNOMED CT#LA6164-2</t>
   </si>
   <si>
+    <t>calorie-deficit-assessment</t>
+  </si>
+  <si>
+    <t>Calorie Deficit Assessment</t>
+  </si>
+  <si>
+    <t>SNOMED CT#182922004</t>
+  </si>
+  <si>
+    <t>https://mitre.org/fhir/space-health/ValueSet/macronutrient-metrics-vs (extensible)</t>
+  </si>
+  <si>
+    <t>Macronutrient Metrics#calorie-expenditure</t>
+  </si>
+  <si>
+    <t>Macronutrient Metrics#calorie-intake</t>
+  </si>
+  <si>
+    <t>Calorie Deficit Risk Levels#mild</t>
+  </si>
+  <si>
     <t>communication-session-assessment</t>
   </si>
   <si>
@@ -375,6 +456,96 @@
   </si>
   <si>
     <t>LOINC#LA6161-8</t>
+  </si>
+  <si>
+    <t>habitat-environmental-observation</t>
+  </si>
+  <si>
+    <t>Habitat Environmental Monitoring</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#environmental</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>hydration-status-observation</t>
+  </si>
+  <si>
+    <t>Hydration Status Observation</t>
+  </si>
+  <si>
+    <t>SNOMED CT#169833004</t>
+  </si>
+  <si>
+    <t>https://mitre.org/fhir/space-health/ValueSet/hydration-type-vs (preferred)</t>
+  </si>
+  <si>
+    <t>isru-production-log</t>
+  </si>
+  <si>
+    <t>ISRU Production Log</t>
+  </si>
+  <si>
+    <t>observation-category-aerospace#operational</t>
+  </si>
+  <si>
+    <t>CodeableConcept, string</t>
+  </si>
+  <si>
+    <t>space-evs-minutes-per-week</t>
+  </si>
+  <si>
+    <t>Space Exercise Vital Sign Minutes Per Week</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#activity</t>
+  </si>
+  <si>
+    <t>null#82290-8</t>
+  </si>
+  <si>
+    <t>space-exercise-activity-group</t>
+  </si>
+  <si>
+    <t>Space Exercise Activity Group</t>
+  </si>
+  <si>
+    <t>null#PAPanel</t>
+  </si>
+  <si>
+    <t>space-exercise-activity-measure</t>
+  </si>
+  <si>
+    <t>Space Exercise Activity Measure</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>space-nutrition-intake</t>
+  </si>
+  <si>
+    <t>Space Nutrition Intake</t>
+  </si>
+  <si>
+    <t>SNOMED CT#226379006</t>
+  </si>
+  <si>
+    <t>https://mitre.org/fhir/space-health/ValueSet/macronutrient-metrics-vs (preferred)</t>
+  </si>
+  <si>
+    <t>LOINC#9052-2</t>
+  </si>
+  <si>
+    <t>LOINC#2692-2</t>
+  </si>
+  <si>
+    <t>Macronutrient Metrics#carbohydrate-grams</t>
+  </si>
+  <si>
+    <t>Macronutrient Metrics#fat-grams</t>
   </si>
   <si>
     <t>space-radiation-exposure</t>
@@ -529,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1042,13 +1213,13 @@
         <v>48</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>17</v>
@@ -1074,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>14</v>
@@ -1109,7 +1280,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
@@ -1132,10 +1303,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>13</v>
@@ -1144,7 +1315,7 @@
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>30</v>
@@ -1167,10 +1338,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>13</v>
@@ -1179,13 +1350,13 @@
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>14</v>
@@ -1205,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>14</v>
@@ -1214,7 +1385,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>14</v>
@@ -1240,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>14</v>
@@ -1249,7 +1420,7 @@
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>14</v>
@@ -1272,28 +1443,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>17</v>
@@ -1310,7 +1481,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>14</v>
@@ -1319,7 +1490,7 @@
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>14</v>
@@ -1328,7 +1499,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>17</v>
@@ -1345,7 +1516,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>14</v>
@@ -1354,7 +1525,7 @@
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>14</v>
@@ -1363,7 +1534,7 @@
         <v>14</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>17</v>
@@ -1380,7 +1551,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>14</v>
@@ -1389,7 +1560,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>14</v>
@@ -1398,7 +1569,7 @@
         <v>14</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>17</v>
@@ -1412,10 +1583,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>14</v>
@@ -1424,16 +1595,16 @@
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>17</v>
@@ -1450,7 +1621,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>14</v>
@@ -1459,16 +1630,16 @@
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>17</v>
@@ -1485,7 +1656,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>14</v>
@@ -1494,7 +1665,7 @@
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>14</v>
@@ -1503,7 +1674,7 @@
         <v>14</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>17</v>
@@ -1520,7 +1691,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>14</v>
@@ -1529,7 +1700,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>14</v>
@@ -1538,7 +1709,7 @@
         <v>14</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>17</v>
@@ -1552,10 +1723,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>14</v>
@@ -1564,16 +1735,16 @@
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>17</v>
@@ -1590,7 +1761,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>14</v>
@@ -1599,7 +1770,7 @@
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>14</v>
@@ -1608,7 +1779,7 @@
         <v>14</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>17</v>
@@ -1625,7 +1796,7 @@
         <v>14</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>14</v>
@@ -1634,7 +1805,7 @@
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>14</v>
@@ -1643,7 +1814,7 @@
         <v>14</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>17</v>
@@ -1660,7 +1831,7 @@
         <v>14</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>14</v>
@@ -1669,7 +1840,7 @@
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>14</v>
@@ -1678,7 +1849,7 @@
         <v>14</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>17</v>
@@ -1692,7 +1863,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>80</v>
@@ -1704,16 +1875,16 @@
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>17</v>
@@ -1739,7 +1910,7 @@
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>14</v>
@@ -1748,7 +1919,7 @@
         <v>14</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>17</v>
@@ -1774,7 +1945,7 @@
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>14</v>
@@ -1783,7 +1954,7 @@
         <v>14</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>17</v>
@@ -1809,7 +1980,7 @@
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>14</v>
@@ -1818,7 +1989,7 @@
         <v>14</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>17</v>
@@ -1844,7 +2015,7 @@
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>14</v>
@@ -1853,7 +2024,7 @@
         <v>14</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>17</v>
@@ -1867,10 +2038,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>14</v>
@@ -1879,16 +2050,16 @@
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>17</v>
@@ -1905,7 +2076,7 @@
         <v>14</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>14</v>
@@ -1914,7 +2085,7 @@
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>14</v>
@@ -1923,7 +2094,7 @@
         <v>14</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>17</v>
@@ -1940,7 +2111,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>14</v>
@@ -1949,7 +2120,7 @@
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>14</v>
@@ -1958,7 +2129,7 @@
         <v>14</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>17</v>
@@ -1972,28 +2143,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>17</v>
@@ -2010,7 +2181,7 @@
         <v>14</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>14</v>
@@ -2019,7 +2190,7 @@
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>14</v>
@@ -2028,7 +2199,7 @@
         <v>14</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>17</v>
@@ -2045,7 +2216,7 @@
         <v>14</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>14</v>
@@ -2054,7 +2225,7 @@
         <v>14</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>14</v>
@@ -2063,7 +2234,7 @@
         <v>14</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>17</v>
@@ -2077,28 +2248,28 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>17</v>
@@ -2112,10 +2283,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>14</v>
@@ -2124,16 +2295,16 @@
         <v>14</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>17</v>
@@ -2150,7 +2321,7 @@
         <v>14</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>14</v>
@@ -2159,7 +2330,7 @@
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>14</v>
@@ -2168,7 +2339,7 @@
         <v>14</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>17</v>
@@ -2185,7 +2356,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>14</v>
@@ -2194,7 +2365,7 @@
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>14</v>
@@ -2203,7 +2374,7 @@
         <v>14</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>17</v>
@@ -2220,7 +2391,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>14</v>
@@ -2229,7 +2400,7 @@
         <v>14</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>14</v>
@@ -2238,7 +2409,7 @@
         <v>14</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>17</v>
@@ -2255,7 +2426,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>14</v>
@@ -2264,7 +2435,7 @@
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>14</v>
@@ -2273,7 +2444,7 @@
         <v>14</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>17</v>
@@ -2287,28 +2458,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>17</v>
@@ -2325,7 +2496,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>14</v>
@@ -2334,7 +2505,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>14</v>
@@ -2343,7 +2514,7 @@
         <v>14</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>17</v>
@@ -2360,7 +2531,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>14</v>
@@ -2369,7 +2540,7 @@
         <v>14</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>14</v>
@@ -2378,7 +2549,7 @@
         <v>14</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>17</v>
@@ -2395,7 +2566,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>14</v>
@@ -2404,7 +2575,7 @@
         <v>14</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>14</v>
@@ -2413,7 +2584,7 @@
         <v>14</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>17</v>
@@ -2427,10 +2598,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>14</v>
@@ -2439,16 +2610,16 @@
         <v>14</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>17</v>
@@ -2465,7 +2636,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>14</v>
@@ -2474,7 +2645,7 @@
         <v>14</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>14</v>
@@ -2483,7 +2654,7 @@
         <v>14</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>17</v>
@@ -2500,7 +2671,7 @@
         <v>14</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>14</v>
@@ -2509,7 +2680,7 @@
         <v>14</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>14</v>
@@ -2518,7 +2689,7 @@
         <v>14</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>17</v>
@@ -2535,7 +2706,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>14</v>
@@ -2544,7 +2715,7 @@
         <v>14</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>14</v>
@@ -2553,7 +2724,7 @@
         <v>14</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>17</v>
@@ -2570,7 +2741,7 @@
         <v>14</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>14</v>
@@ -2579,7 +2750,7 @@
         <v>14</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>14</v>
@@ -2588,7 +2759,7 @@
         <v>14</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>17</v>
@@ -2602,10 +2773,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>14</v>
@@ -2614,16 +2785,16 @@
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>17</v>
@@ -2637,28 +2808,28 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>17</v>
@@ -2675,7 +2846,7 @@
         <v>14</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>14</v>
@@ -2684,7 +2855,7 @@
         <v>14</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>14</v>
@@ -2693,7 +2864,7 @@
         <v>14</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>17</v>
@@ -2710,7 +2881,7 @@
         <v>14</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>14</v>
@@ -2719,7 +2890,7 @@
         <v>14</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>14</v>
@@ -2728,7 +2899,7 @@
         <v>14</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>17</v>
@@ -2745,7 +2916,7 @@
         <v>14</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>14</v>
@@ -2754,7 +2925,7 @@
         <v>14</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>14</v>
@@ -2763,7 +2934,7 @@
         <v>14</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>17</v>
@@ -2780,7 +2951,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>14</v>
@@ -2789,7 +2960,7 @@
         <v>14</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>14</v>
@@ -2798,7 +2969,7 @@
         <v>14</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>17</v>
@@ -2815,7 +2986,7 @@
         <v>14</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>14</v>
@@ -2824,7 +2995,7 @@
         <v>14</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>14</v>
@@ -2833,7 +3004,7 @@
         <v>14</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>17</v>
@@ -2850,7 +3021,7 @@
         <v>14</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>14</v>
@@ -2859,7 +3030,7 @@
         <v>14</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>14</v>
@@ -2868,7 +3039,7 @@
         <v>14</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>17</v>
@@ -2882,28 +3053,28 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="B68" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="C68" t="s" s="2">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>17</v>
@@ -2920,7 +3091,7 @@
         <v>14</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>14</v>
@@ -2929,7 +3100,7 @@
         <v>14</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>14</v>
@@ -2938,7 +3109,7 @@
         <v>14</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>17</v>
@@ -2955,7 +3126,7 @@
         <v>14</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>14</v>
@@ -2964,7 +3135,7 @@
         <v>14</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>14</v>
@@ -2973,7 +3144,7 @@
         <v>14</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>17</v>
@@ -2990,7 +3161,7 @@
         <v>14</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>14</v>
@@ -2999,7 +3170,7 @@
         <v>14</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>14</v>
@@ -3008,7 +3179,7 @@
         <v>14</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>17</v>
@@ -3025,7 +3196,7 @@
         <v>14</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>14</v>
@@ -3034,7 +3205,7 @@
         <v>14</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>14</v>
@@ -3043,7 +3214,7 @@
         <v>14</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>17</v>
@@ -3060,7 +3231,7 @@
         <v>14</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>14</v>
@@ -3069,7 +3240,7 @@
         <v>14</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>14</v>
@@ -3078,7 +3249,7 @@
         <v>14</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>17</v>
@@ -3095,7 +3266,7 @@
         <v>14</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>14</v>
@@ -3104,7 +3275,7 @@
         <v>14</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>14</v>
@@ -3113,7 +3284,7 @@
         <v>14</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>17</v>
@@ -3127,36 +3298,1086 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="F100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E101" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="F101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C105" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D75" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E75" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s" s="2">
+      <c r="D105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="H75" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K75" t="s" s="2">
+      <c r="H105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K105" t="s" s="2">
         <v>14</v>
       </c>
     </row>
